--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/Curve Sample-HKD.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Rates/Curve Sample-HKD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Rates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B734D-B6B0-4FBA-9F67-8574284CD0A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="105" windowWidth="18975" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="1380" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HKD" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,15 @@
     <definedName name="Algorithms">Settings!$A$5:$A$7</definedName>
     <definedName name="ValueDate">Settings!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1054,7 +1063,7 @@
       </c>
       <c r="B7" s="12">
         <f ca="1">ValueDate</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>52</v>
@@ -1077,7 +1086,7 @@
       </c>
       <c r="B8" s="18">
         <f ca="1">B7</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="G8" s="1"/>
       <c r="I8" s="3"/>
@@ -1098,7 +1107,7 @@
       </c>
       <c r="B10" s="18">
         <f ca="1">TODAY()</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
       <c r="G10" s="1"/>
       <c r="I10" s="3"/>
@@ -1635,7 +1644,7 @@
       </c>
       <c r="B1" s="56">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43133</v>
+        <v>43647</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
